--- a/input/filters not in use/j_filter_Industry_Light.xlsx
+++ b/input/filters not in use/j_filter_Industry_Light.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uctcloud-my.sharepoint.com/personal/01405439_wf_uct_ac_za/Documents/Energy Systems Research Group/Projects/Active/IMAGINE/WIP/WP1/Dashboard/Filter Script/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\savan\OneDrive\Desktop\ESRG DDPT template\DDPTemplateAutomationVFinal\input\filters not in use\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D3F5D410-5AD5-4060-B86F-48906D01FF7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D34FB7D8-9DD5-4BED-949D-7A3852A173BB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8083E5-C1DB-45C2-B622-F4429E5741DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INDUSTRY_Light (DB)_REF" sheetId="1" r:id="rId1"/>
@@ -682,30 +682,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U371"/>
+  <dimension ref="A1:U370"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F240" sqref="F240"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" customWidth="1"/>
-    <col min="6" max="6" width="29.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" customWidth="1"/>
-    <col min="11" max="11" width="61.5703125" customWidth="1"/>
-    <col min="12" max="12" width="11.140625" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" customWidth="1"/>
-    <col min="15" max="15" width="35.5703125" customWidth="1"/>
-    <col min="19" max="19" width="30.42578125" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="61.5546875" customWidth="1"/>
+    <col min="12" max="12" width="11.109375" customWidth="1"/>
+    <col min="14" max="14" width="19.33203125" customWidth="1"/>
+    <col min="15" max="15" width="35.5546875" customWidth="1"/>
+    <col min="19" max="19" width="30.44140625" customWidth="1"/>
+    <col min="20" max="20" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>19</v>
       </c>
@@ -770,7 +770,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -835,7 +835,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -901,7 +901,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -967,7 +967,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1033,7 +1033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1165,7 +1165,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1231,7 +1231,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1297,7 +1297,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
     </row>
-    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1357,7 +1357,7 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1555,7 +1555,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1651,7 +1651,7 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
     </row>
-    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
     </row>
-    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1711,7 +1711,7 @@
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
     </row>
-    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -1777,7 +1777,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>1</v>
       </c>
@@ -1843,7 +1843,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>1</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -1975,7 +1975,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -2041,7 +2041,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>1</v>
       </c>
@@ -2107,7 +2107,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>1</v>
       </c>
@@ -2173,7 +2173,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>1</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="27" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>1</v>
       </c>
@@ -2305,7 +2305,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="28" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>1</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="29" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>1</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>1</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>1</v>
       </c>
@@ -2569,7 +2569,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>1</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>1</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>1</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>1</v>
       </c>
@@ -2833,7 +2833,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>1</v>
       </c>
@@ -2863,7 +2863,7 @@
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
     </row>
-    <row r="37" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>1</v>
       </c>
@@ -2893,7 +2893,7 @@
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>1</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>1</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="40" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>1</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>1</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>1</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>1</v>
       </c>
@@ -3289,7 +3289,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>1</v>
       </c>
@@ -3355,7 +3355,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>1</v>
       </c>
@@ -3421,7 +3421,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -3487,7 +3487,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>1</v>
       </c>
@@ -3553,7 +3553,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>1</v>
       </c>
@@ -3619,7 +3619,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="49" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>1</v>
       </c>
@@ -3685,7 +3685,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>1</v>
       </c>
@@ -3751,7 +3751,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>1</v>
       </c>
@@ -3817,7 +3817,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>1</v>
       </c>
@@ -3883,7 +3883,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>1</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>1</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>1</v>
       </c>
@@ -4081,7 +4081,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>1</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>1</v>
       </c>
@@ -4141,7 +4141,7 @@
       <c r="T57" s="3"/>
       <c r="U57" s="3"/>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>1</v>
       </c>
@@ -4171,7 +4171,7 @@
       <c r="T58" s="3"/>
       <c r="U58" s="3"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>1</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>1</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="61" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>1</v>
       </c>
@@ -4369,7 +4369,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>1</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>1</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>1</v>
       </c>
@@ -4567,7 +4567,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>1</v>
       </c>
@@ -4633,7 +4633,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>1</v>
       </c>
@@ -4699,7 +4699,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="67" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>1</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>1</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>1</v>
       </c>
@@ -4897,7 +4897,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>1</v>
       </c>
@@ -4963,7 +4963,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>1</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>1</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>1</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>1</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="75" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>1</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>1</v>
       </c>
@@ -5323,7 +5323,7 @@
       <c r="T76" s="3"/>
       <c r="U76" s="3"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>1</v>
       </c>
@@ -5353,7 +5353,7 @@
       <c r="T77" s="3"/>
       <c r="U77" s="3"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>1</v>
       </c>
@@ -5419,7 +5419,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>1</v>
       </c>
@@ -5485,7 +5485,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>1</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>1</v>
       </c>
@@ -5617,7 +5617,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>1</v>
       </c>
@@ -5683,7 +5683,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>1</v>
       </c>
@@ -5749,7 +5749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>1</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>1</v>
       </c>
@@ -5881,7 +5881,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>1</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>1</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>1</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>1</v>
       </c>
@@ -6145,7 +6145,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>1</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>1</v>
       </c>
@@ -6277,7 +6277,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>1</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>1</v>
       </c>
@@ -6409,7 +6409,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>1</v>
       </c>
@@ -6475,7 +6475,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>1</v>
       </c>
@@ -6541,7 +6541,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>1</v>
       </c>
@@ -6571,7 +6571,7 @@
       <c r="T96" s="3"/>
       <c r="U96" s="3"/>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>1</v>
       </c>
@@ -6601,7 +6601,7 @@
       <c r="T97" s="3"/>
       <c r="U97" s="3"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>1</v>
       </c>
@@ -6631,7 +6631,7 @@
       <c r="T98" s="3"/>
       <c r="U98" s="3"/>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>1</v>
       </c>
@@ -6669,7 +6669,7 @@
       <c r="T99" s="3"/>
       <c r="U99" s="3"/>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>1</v>
       </c>
@@ -6707,7 +6707,7 @@
       <c r="T100" s="3"/>
       <c r="U100" s="3"/>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>1</v>
       </c>
@@ -6745,7 +6745,7 @@
       <c r="T101" s="3"/>
       <c r="U101" s="3"/>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>1</v>
       </c>
@@ -6783,7 +6783,7 @@
       <c r="T102" s="3"/>
       <c r="U102" s="3"/>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>1</v>
       </c>
@@ -6821,7 +6821,7 @@
       <c r="T103" s="3"/>
       <c r="U103" s="3"/>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>1</v>
       </c>
@@ -6859,7 +6859,7 @@
       <c r="T104" s="3"/>
       <c r="U104" s="3"/>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>1</v>
       </c>
@@ -6897,7 +6897,7 @@
       <c r="T105" s="3"/>
       <c r="U105" s="3"/>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>1</v>
       </c>
@@ -6935,7 +6935,7 @@
       <c r="T106" s="3"/>
       <c r="U106" s="3"/>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>1</v>
       </c>
@@ -6973,7 +6973,7 @@
       <c r="T107" s="3"/>
       <c r="U107" s="3"/>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>1</v>
       </c>
@@ -7011,7 +7011,7 @@
       <c r="T108" s="3"/>
       <c r="U108" s="3"/>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>1</v>
       </c>
@@ -7049,7 +7049,7 @@
       <c r="T109" s="3"/>
       <c r="U109" s="3"/>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>1</v>
       </c>
@@ -7087,7 +7087,7 @@
       <c r="T110" s="3"/>
       <c r="U110" s="3"/>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>1</v>
       </c>
@@ -7125,7 +7125,7 @@
       <c r="T111" s="3"/>
       <c r="U111" s="3"/>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>1</v>
       </c>
@@ -7163,7 +7163,7 @@
       <c r="T112" s="3"/>
       <c r="U112" s="3"/>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>1</v>
       </c>
@@ -7201,7 +7201,7 @@
       <c r="T113" s="3"/>
       <c r="U113" s="3"/>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>1</v>
       </c>
@@ -7239,7 +7239,7 @@
       <c r="T114" s="3"/>
       <c r="U114" s="3"/>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>1</v>
       </c>
@@ -7277,7 +7277,7 @@
       <c r="T115" s="3"/>
       <c r="U115" s="3"/>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>1</v>
       </c>
@@ -7307,7 +7307,7 @@
       <c r="T116" s="3"/>
       <c r="U116" s="3"/>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>1</v>
       </c>
@@ -7337,7 +7337,7 @@
       <c r="T117" s="3"/>
       <c r="U117" s="3"/>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>1</v>
       </c>
@@ -7375,7 +7375,7 @@
       <c r="T118" s="3"/>
       <c r="U118" s="3"/>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>1</v>
       </c>
@@ -7413,7 +7413,7 @@
       <c r="T119" s="3"/>
       <c r="U119" s="3"/>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>1</v>
       </c>
@@ -7451,7 +7451,7 @@
       <c r="T120" s="3"/>
       <c r="U120" s="3"/>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>1</v>
       </c>
@@ -7489,7 +7489,7 @@
       <c r="T121" s="3"/>
       <c r="U121" s="3"/>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>1</v>
       </c>
@@ -7527,7 +7527,7 @@
       <c r="T122" s="3"/>
       <c r="U122" s="3"/>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>1</v>
       </c>
@@ -7565,7 +7565,7 @@
       <c r="T123" s="3"/>
       <c r="U123" s="3"/>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>1</v>
       </c>
@@ -7603,7 +7603,7 @@
       <c r="T124" s="3"/>
       <c r="U124" s="3"/>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>1</v>
       </c>
@@ -7641,7 +7641,7 @@
       <c r="T125" s="3"/>
       <c r="U125" s="3"/>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>1</v>
       </c>
@@ -7679,7 +7679,7 @@
       <c r="T126" s="3"/>
       <c r="U126" s="3"/>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>1</v>
       </c>
@@ -7717,7 +7717,7 @@
       <c r="T127" s="3"/>
       <c r="U127" s="3"/>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>1</v>
       </c>
@@ -7755,7 +7755,7 @@
       <c r="T128" s="3"/>
       <c r="U128" s="3"/>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>1</v>
       </c>
@@ -7793,7 +7793,7 @@
       <c r="T129" s="3"/>
       <c r="U129" s="3"/>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>1</v>
       </c>
@@ -7831,7 +7831,7 @@
       <c r="T130" s="3"/>
       <c r="U130" s="3"/>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>1</v>
       </c>
@@ -7869,7 +7869,7 @@
       <c r="T131" s="3"/>
       <c r="U131" s="3"/>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>1</v>
       </c>
@@ -7907,7 +7907,7 @@
       <c r="T132" s="3"/>
       <c r="U132" s="3"/>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>1</v>
       </c>
@@ -7945,7 +7945,7 @@
       <c r="T133" s="3"/>
       <c r="U133" s="3"/>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>1</v>
       </c>
@@ -7983,7 +7983,7 @@
       <c r="T134" s="3"/>
       <c r="U134" s="3"/>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>1</v>
       </c>
@@ -8021,7 +8021,7 @@
       <c r="T135" s="3"/>
       <c r="U135" s="3"/>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>1</v>
       </c>
@@ -8051,7 +8051,7 @@
       <c r="T136" s="3"/>
       <c r="U136" s="3"/>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>1</v>
       </c>
@@ -8081,7 +8081,7 @@
       <c r="T137" s="3"/>
       <c r="U137" s="3"/>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>1</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="T138" s="3"/>
       <c r="U138" s="3"/>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>1</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>1</v>
       </c>
@@ -8243,7 +8243,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>1</v>
       </c>
@@ -8309,7 +8309,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>1</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>1</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>1</v>
       </c>
@@ -8507,7 +8507,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>1</v>
       </c>
@@ -8573,7 +8573,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>1</v>
       </c>
@@ -8639,7 +8639,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>1</v>
       </c>
@@ -8705,7 +8705,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>1</v>
       </c>
@@ -8771,7 +8771,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>1</v>
       </c>
@@ -8837,7 +8837,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>1</v>
       </c>
@@ -8903,7 +8903,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>1</v>
       </c>
@@ -8969,7 +8969,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>1</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>1</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>1</v>
       </c>
@@ -9167,7 +9167,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>1</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>1</v>
       </c>
@@ -9265,7 +9265,7 @@
       <c r="T156" s="3"/>
       <c r="U156" s="3"/>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>1</v>
       </c>
@@ -9295,7 +9295,7 @@
       <c r="T157" s="3"/>
       <c r="U157" s="3"/>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>1</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>1</v>
       </c>
@@ -9427,7 +9427,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>1</v>
       </c>
@@ -9493,7 +9493,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>1</v>
       </c>
@@ -9559,7 +9559,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>1</v>
       </c>
@@ -9625,7 +9625,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>1</v>
       </c>
@@ -9691,7 +9691,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>1</v>
       </c>
@@ -9757,7 +9757,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>1</v>
       </c>
@@ -9823,7 +9823,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>1</v>
       </c>
@@ -9889,7 +9889,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>1</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>1</v>
       </c>
@@ -10021,7 +10021,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>1</v>
       </c>
@@ -10087,7 +10087,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>1</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>1</v>
       </c>
@@ -10219,7 +10219,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>1</v>
       </c>
@@ -10285,7 +10285,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>1</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>1</v>
       </c>
@@ -10417,7 +10417,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>1</v>
       </c>
@@ -10483,7 +10483,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>1</v>
       </c>
@@ -10513,7 +10513,7 @@
       <c r="T176" s="3"/>
       <c r="U176" s="3"/>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>1</v>
       </c>
@@ -10543,7 +10543,7 @@
       <c r="T177" s="3"/>
       <c r="U177" s="3"/>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>1</v>
       </c>
@@ -10551,7 +10551,7 @@
         <v>14</v>
       </c>
       <c r="C178" s="3">
-        <f t="shared" ref="C178:C238" si="6">C177+1</f>
+        <f t="shared" ref="C178:C237" si="6">C177+1</f>
         <v>201</v>
       </c>
       <c r="D178" s="3"/>
@@ -10573,7 +10573,7 @@
       <c r="T178" s="3"/>
       <c r="U178" s="3"/>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>1</v>
       </c>
@@ -10639,7 +10639,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>1</v>
       </c>
@@ -10705,7 +10705,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="181" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>1</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>1</v>
       </c>
@@ -10837,7 +10837,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>1</v>
       </c>
@@ -10867,7 +10867,7 @@
       <c r="T183" s="3"/>
       <c r="U183" s="3"/>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>1</v>
       </c>
@@ -10897,7 +10897,7 @@
       <c r="T184" s="3"/>
       <c r="U184" s="3"/>
     </row>
-    <row r="185" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>1</v>
       </c>
@@ -10963,7 +10963,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="186" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>1</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="187" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>1</v>
       </c>
@@ -11095,7 +11095,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="188" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>1</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="189" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>1</v>
       </c>
@@ -11227,7 +11227,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="190" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>1</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="191" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>1</v>
       </c>
@@ -11359,7 +11359,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="192" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>1</v>
       </c>
@@ -11425,7 +11425,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="193" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>1</v>
       </c>
@@ -11491,7 +11491,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="194" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>1</v>
       </c>
@@ -11557,7 +11557,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="195" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>1</v>
       </c>
@@ -11623,7 +11623,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="196" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>1</v>
       </c>
@@ -11689,7 +11689,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="197" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>1</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="198" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>1</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="199" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>1</v>
       </c>
@@ -11887,7 +11887,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="200" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>1</v>
       </c>
@@ -11953,7 +11953,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="201" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>1</v>
       </c>
@@ -12019,7 +12019,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>1</v>
       </c>
@@ -12051,7 +12051,7 @@
       <c r="T202" s="3"/>
       <c r="U202" s="3"/>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>1</v>
       </c>
@@ -12081,7 +12081,7 @@
       <c r="T203" s="3"/>
       <c r="U203" s="3"/>
     </row>
-    <row r="204" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>1</v>
       </c>
@@ -12147,7 +12147,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="205" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>1</v>
       </c>
@@ -12213,7 +12213,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="206" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>1</v>
       </c>
@@ -12279,7 +12279,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="207" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>1</v>
       </c>
@@ -12345,7 +12345,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>1</v>
       </c>
@@ -12375,7 +12375,7 @@
       <c r="T208" s="3"/>
       <c r="U208" s="3"/>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>1</v>
       </c>
@@ -12405,7 +12405,7 @@
       <c r="T209" s="3"/>
       <c r="U209" s="3"/>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>1</v>
       </c>
@@ -12471,7 +12471,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>1</v>
       </c>
@@ -12537,7 +12537,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="212" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>1</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>1</v>
       </c>
@@ -12669,7 +12669,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>1</v>
       </c>
@@ -12699,7 +12699,7 @@
       <c r="T214" s="3"/>
       <c r="U214" s="3"/>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>1</v>
       </c>
@@ -12729,7 +12729,7 @@
       <c r="T215" s="3"/>
       <c r="U215" s="3"/>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>1</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>1</v>
       </c>
@@ -12861,7 +12861,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="218" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>1</v>
       </c>
@@ -12927,7 +12927,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>1</v>
       </c>
@@ -12993,7 +12993,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>1</v>
       </c>
@@ -13023,7 +13023,7 @@
       <c r="T220" s="3"/>
       <c r="U220" s="3"/>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>1</v>
       </c>
@@ -13053,7 +13053,7 @@
       <c r="T221" s="3"/>
       <c r="U221" s="3"/>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>1</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>1</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="224" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>1</v>
       </c>
@@ -13251,7 +13251,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>1</v>
       </c>
@@ -13317,7 +13317,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>1</v>
       </c>
@@ -13347,7 +13347,7 @@
       <c r="T226" s="3"/>
       <c r="U226" s="3"/>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>1</v>
       </c>
@@ -13377,7 +13377,7 @@
       <c r="T227" s="3"/>
       <c r="U227" s="3"/>
     </row>
-    <row r="228" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>1</v>
       </c>
@@ -13443,7 +13443,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="229" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>1</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="230" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>1</v>
       </c>
@@ -13575,7 +13575,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="231" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>1</v>
       </c>
@@ -13641,7 +13641,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>1</v>
       </c>
@@ -13671,7 +13671,7 @@
       <c r="T232" s="3"/>
       <c r="U232" s="3"/>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>1</v>
       </c>
@@ -13701,7 +13701,7 @@
       <c r="T233" s="3"/>
       <c r="U233" s="3"/>
     </row>
-    <row r="234" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>1</v>
       </c>
@@ -13767,7 +13767,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="235" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>1</v>
       </c>
@@ -13833,7 +13833,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="236" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>1</v>
       </c>
@@ -13899,7 +13899,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="237" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>1</v>
       </c>
@@ -13965,765 +13965,735 @@
         <v>67</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A238" s="3">
-        <v>1</v>
-      </c>
-      <c r="B238" s="3">
-        <v>14</v>
-      </c>
-      <c r="C238" s="3">
-        <f t="shared" si="6"/>
-        <v>261</v>
-      </c>
-      <c r="D238" s="3"/>
-      <c r="E238" s="3"/>
-      <c r="F238" s="3"/>
-      <c r="G238" s="3"/>
-      <c r="H238" s="3"/>
-      <c r="I238" s="3"/>
-      <c r="J238" s="3"/>
-      <c r="K238" s="3"/>
-      <c r="L238" s="3"/>
-      <c r="M238" s="3"/>
-      <c r="N238" s="3"/>
-      <c r="O238" s="3"/>
-      <c r="P238" s="3"/>
-      <c r="Q238" s="3"/>
-      <c r="R238" s="3"/>
-      <c r="S238" s="3"/>
-      <c r="T238" s="3"/>
-      <c r="U238" s="4"/>
-    </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A239" s="2"/>
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A238" s="2"/>
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+      <c r="U238" s="2"/>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A239" s="1"/>
+      <c r="B239" s="1"/>
+      <c r="C239" s="1"/>
       <c r="U239" s="2"/>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A240" s="1"/>
       <c r="B240" s="1"/>
       <c r="C240" s="1"/>
-      <c r="U240" s="2"/>
-    </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U240" s="1"/>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A241" s="1"/>
       <c r="B241" s="1"/>
       <c r="C241" s="1"/>
       <c r="U241" s="1"/>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A242" s="1"/>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
       <c r="U242" s="1"/>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A243" s="1"/>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="U243" s="1"/>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A244" s="1"/>
       <c r="B244" s="1"/>
       <c r="C244" s="1"/>
       <c r="U244" s="1"/>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A245" s="1"/>
       <c r="B245" s="1"/>
       <c r="C245" s="1"/>
-      <c r="U245" s="1"/>
-    </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U245" s="2"/>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A246" s="1"/>
       <c r="B246" s="1"/>
       <c r="C246" s="1"/>
-      <c r="U246" s="2"/>
-    </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U246" s="1"/>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A247" s="1"/>
       <c r="B247" s="1"/>
       <c r="C247" s="1"/>
       <c r="U247" s="1"/>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A248" s="1"/>
       <c r="B248" s="1"/>
       <c r="C248" s="1"/>
       <c r="U248" s="1"/>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A249" s="1"/>
       <c r="B249" s="1"/>
       <c r="C249" s="1"/>
       <c r="U249" s="1"/>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A250" s="1"/>
       <c r="B250" s="1"/>
       <c r="C250" s="1"/>
       <c r="U250" s="1"/>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A251" s="1"/>
       <c r="B251" s="1"/>
       <c r="C251" s="1"/>
       <c r="U251" s="1"/>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A252" s="1"/>
       <c r="B252" s="1"/>
       <c r="C252" s="1"/>
       <c r="U252" s="1"/>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A253" s="1"/>
       <c r="B253" s="1"/>
       <c r="C253" s="1"/>
       <c r="U253" s="1"/>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A254" s="1"/>
       <c r="B254" s="1"/>
       <c r="C254" s="1"/>
       <c r="U254" s="1"/>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A255" s="1"/>
       <c r="B255" s="1"/>
       <c r="C255" s="1"/>
       <c r="U255" s="1"/>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A256" s="1"/>
       <c r="B256" s="1"/>
       <c r="C256" s="1"/>
       <c r="U256" s="1"/>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A257" s="1"/>
       <c r="B257" s="1"/>
       <c r="C257" s="1"/>
       <c r="U257" s="1"/>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A258" s="1"/>
       <c r="B258" s="1"/>
       <c r="C258" s="1"/>
       <c r="U258" s="1"/>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A259" s="1"/>
       <c r="B259" s="1"/>
       <c r="C259" s="1"/>
       <c r="U259" s="1"/>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A260" s="1"/>
       <c r="B260" s="1"/>
       <c r="C260" s="1"/>
       <c r="U260" s="1"/>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A261" s="1"/>
       <c r="B261" s="1"/>
       <c r="C261" s="1"/>
       <c r="U261" s="1"/>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A262" s="1"/>
       <c r="B262" s="1"/>
       <c r="C262" s="1"/>
       <c r="U262" s="1"/>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A263" s="1"/>
       <c r="B263" s="1"/>
       <c r="C263" s="1"/>
       <c r="U263" s="1"/>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A264" s="1"/>
       <c r="B264" s="1"/>
       <c r="C264" s="1"/>
       <c r="U264" s="1"/>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A265" s="1"/>
       <c r="B265" s="1"/>
       <c r="C265" s="1"/>
       <c r="U265" s="1"/>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A266" s="1"/>
       <c r="B266" s="1"/>
       <c r="C266" s="1"/>
       <c r="U266" s="1"/>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A267" s="1"/>
       <c r="B267" s="1"/>
       <c r="C267" s="1"/>
       <c r="U267" s="1"/>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A268" s="1"/>
       <c r="B268" s="1"/>
       <c r="C268" s="1"/>
       <c r="U268" s="1"/>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A269" s="1"/>
       <c r="B269" s="1"/>
       <c r="C269" s="1"/>
       <c r="U269" s="1"/>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A270" s="1"/>
       <c r="B270" s="1"/>
       <c r="C270" s="1"/>
       <c r="U270" s="1"/>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A271" s="1"/>
       <c r="B271" s="1"/>
       <c r="C271" s="1"/>
       <c r="U271" s="1"/>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A272" s="1"/>
       <c r="B272" s="1"/>
       <c r="C272" s="1"/>
       <c r="U272" s="1"/>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A273" s="1"/>
       <c r="B273" s="1"/>
       <c r="C273" s="1"/>
       <c r="U273" s="1"/>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A274" s="1"/>
       <c r="B274" s="1"/>
       <c r="C274" s="1"/>
       <c r="U274" s="1"/>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A275" s="1"/>
       <c r="B275" s="1"/>
       <c r="C275" s="1"/>
       <c r="U275" s="1"/>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A276" s="1"/>
       <c r="B276" s="1"/>
       <c r="C276" s="1"/>
       <c r="U276" s="1"/>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A277" s="1"/>
       <c r="B277" s="1"/>
       <c r="C277" s="1"/>
       <c r="U277" s="1"/>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A278" s="1"/>
       <c r="B278" s="1"/>
       <c r="C278" s="1"/>
       <c r="U278" s="1"/>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A279" s="1"/>
       <c r="B279" s="1"/>
       <c r="C279" s="1"/>
       <c r="U279" s="1"/>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A280" s="1"/>
       <c r="B280" s="1"/>
       <c r="C280" s="1"/>
       <c r="U280" s="1"/>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A281" s="1"/>
       <c r="B281" s="1"/>
       <c r="C281" s="1"/>
       <c r="U281" s="1"/>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A282" s="1"/>
       <c r="B282" s="1"/>
       <c r="C282" s="1"/>
       <c r="U282" s="1"/>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A283" s="1"/>
       <c r="B283" s="1"/>
       <c r="C283" s="1"/>
       <c r="U283" s="1"/>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A284" s="1"/>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
       <c r="U284" s="1"/>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A285" s="1"/>
       <c r="B285" s="1"/>
       <c r="C285" s="1"/>
       <c r="U285" s="1"/>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A286" s="1"/>
       <c r="B286" s="1"/>
       <c r="C286" s="1"/>
       <c r="U286" s="1"/>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A287" s="1"/>
       <c r="B287" s="1"/>
       <c r="C287" s="1"/>
       <c r="U287" s="1"/>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A288" s="1"/>
       <c r="B288" s="1"/>
       <c r="C288" s="1"/>
       <c r="U288" s="1"/>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A289" s="1"/>
       <c r="B289" s="1"/>
       <c r="C289" s="1"/>
       <c r="U289" s="1"/>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A290" s="1"/>
       <c r="B290" s="1"/>
       <c r="C290" s="1"/>
       <c r="U290" s="1"/>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A291" s="1"/>
       <c r="B291" s="1"/>
       <c r="C291" s="1"/>
       <c r="U291" s="1"/>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A292" s="1"/>
       <c r="B292" s="1"/>
       <c r="C292" s="1"/>
       <c r="U292" s="1"/>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A293" s="1"/>
       <c r="B293" s="1"/>
       <c r="C293" s="1"/>
       <c r="U293" s="1"/>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A294" s="1"/>
       <c r="B294" s="1"/>
       <c r="C294" s="1"/>
       <c r="U294" s="1"/>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A295" s="1"/>
       <c r="B295" s="1"/>
       <c r="C295" s="1"/>
       <c r="U295" s="1"/>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A296" s="1"/>
       <c r="B296" s="1"/>
       <c r="C296" s="1"/>
       <c r="U296" s="1"/>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A297" s="1"/>
       <c r="B297" s="1"/>
       <c r="C297" s="1"/>
       <c r="U297" s="1"/>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A298" s="1"/>
       <c r="B298" s="1"/>
       <c r="C298" s="1"/>
       <c r="U298" s="1"/>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A299" s="1"/>
       <c r="B299" s="1"/>
       <c r="C299" s="1"/>
       <c r="U299" s="1"/>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A300" s="1"/>
       <c r="B300" s="1"/>
       <c r="C300" s="1"/>
       <c r="U300" s="1"/>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A301" s="1"/>
       <c r="B301" s="1"/>
       <c r="C301" s="1"/>
       <c r="U301" s="1"/>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A302" s="1"/>
       <c r="B302" s="1"/>
       <c r="C302" s="1"/>
       <c r="U302" s="1"/>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A303" s="1"/>
       <c r="B303" s="1"/>
       <c r="C303" s="1"/>
-      <c r="U303" s="1"/>
-    </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    </row>
+    <row r="304" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A304" s="1"/>
       <c r="B304" s="1"/>
       <c r="C304" s="1"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" s="1"/>
       <c r="B305" s="1"/>
       <c r="C305" s="1"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" s="1"/>
       <c r="B306" s="1"/>
       <c r="C306" s="1"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" s="1"/>
       <c r="B307" s="1"/>
       <c r="C307" s="1"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" s="1"/>
       <c r="B308" s="1"/>
       <c r="C308" s="1"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" s="1"/>
       <c r="B309" s="1"/>
       <c r="C309" s="1"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" s="1"/>
       <c r="B310" s="1"/>
       <c r="C310" s="1"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" s="1"/>
       <c r="B311" s="1"/>
       <c r="C311" s="1"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" s="1"/>
       <c r="B312" s="1"/>
       <c r="C312" s="1"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" s="1"/>
       <c r="B313" s="1"/>
       <c r="C313" s="1"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" s="1"/>
       <c r="B314" s="1"/>
       <c r="C314" s="1"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" s="1"/>
       <c r="B315" s="1"/>
       <c r="C315" s="1"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" s="1"/>
       <c r="B316" s="1"/>
       <c r="C316" s="1"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" s="1"/>
       <c r="B317" s="1"/>
       <c r="C317" s="1"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" s="1"/>
       <c r="B318" s="1"/>
       <c r="C318" s="1"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" s="1"/>
       <c r="B319" s="1"/>
       <c r="C319" s="1"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" s="1"/>
       <c r="B320" s="1"/>
       <c r="C320" s="1"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" s="1"/>
       <c r="B321" s="1"/>
       <c r="C321" s="1"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" s="1"/>
       <c r="B322" s="1"/>
       <c r="C322" s="1"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" s="1"/>
       <c r="B323" s="1"/>
       <c r="C323" s="1"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" s="1"/>
       <c r="B324" s="1"/>
       <c r="C324" s="1"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" s="1"/>
       <c r="B325" s="1"/>
       <c r="C325" s="1"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" s="1"/>
       <c r="B326" s="1"/>
       <c r="C326" s="1"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" s="1"/>
       <c r="B327" s="1"/>
       <c r="C327" s="1"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" s="1"/>
       <c r="B328" s="1"/>
       <c r="C328" s="1"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" s="1"/>
       <c r="B329" s="1"/>
       <c r="C329" s="1"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" s="1"/>
       <c r="B330" s="1"/>
       <c r="C330" s="1"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" s="1"/>
       <c r="B331" s="1"/>
       <c r="C331" s="1"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" s="1"/>
       <c r="B332" s="1"/>
       <c r="C332" s="1"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" s="1"/>
       <c r="B333" s="1"/>
       <c r="C333" s="1"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" s="1"/>
       <c r="B334" s="1"/>
       <c r="C334" s="1"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" s="1"/>
       <c r="B335" s="1"/>
       <c r="C335" s="1"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" s="1"/>
       <c r="B336" s="1"/>
       <c r="C336" s="1"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" s="1"/>
       <c r="B337" s="1"/>
       <c r="C337" s="1"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" s="1"/>
       <c r="B338" s="1"/>
       <c r="C338" s="1"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" s="1"/>
       <c r="B339" s="1"/>
       <c r="C339" s="1"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" s="1"/>
       <c r="B340" s="1"/>
       <c r="C340" s="1"/>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" s="1"/>
       <c r="B341" s="1"/>
       <c r="C341" s="1"/>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" s="1"/>
       <c r="B342" s="1"/>
       <c r="C342" s="1"/>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" s="1"/>
       <c r="B343" s="1"/>
       <c r="C343" s="1"/>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" s="1"/>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" s="1"/>
       <c r="B345" s="1"/>
       <c r="C345" s="1"/>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" s="1"/>
       <c r="B346" s="1"/>
       <c r="C346" s="1"/>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" s="1"/>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" s="1"/>
       <c r="B348" s="1"/>
       <c r="C348" s="1"/>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" s="1"/>
       <c r="B349" s="1"/>
       <c r="C349" s="1"/>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" s="1"/>
       <c r="B350" s="1"/>
       <c r="C350" s="1"/>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" s="1"/>
       <c r="B351" s="1"/>
       <c r="C351" s="1"/>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" s="1"/>
       <c r="B352" s="1"/>
       <c r="C352" s="1"/>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" s="1"/>
       <c r="B353" s="1"/>
       <c r="C353" s="1"/>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" s="1"/>
       <c r="B354" s="1"/>
       <c r="C354" s="1"/>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" s="1"/>
       <c r="B355" s="1"/>
       <c r="C355" s="1"/>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" s="1"/>
       <c r="B356" s="1"/>
       <c r="C356" s="1"/>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" s="1"/>
       <c r="B357" s="1"/>
       <c r="C357" s="1"/>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" s="1"/>
       <c r="B358" s="1"/>
       <c r="C358" s="1"/>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" s="1"/>
       <c r="B359" s="1"/>
       <c r="C359" s="1"/>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" s="1"/>
       <c r="B360" s="1"/>
       <c r="C360" s="1"/>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" s="1"/>
       <c r="B361" s="1"/>
       <c r="C361" s="1"/>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" s="1"/>
       <c r="B362" s="1"/>
       <c r="C362" s="1"/>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" s="1"/>
       <c r="B363" s="1"/>
       <c r="C363" s="1"/>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" s="1"/>
       <c r="B364" s="1"/>
       <c r="C364" s="1"/>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" s="1"/>
       <c r="B365" s="1"/>
       <c r="C365" s="1"/>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" s="1"/>
       <c r="B366" s="1"/>
       <c r="C366" s="1"/>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" s="1"/>
       <c r="B367" s="1"/>
       <c r="C367" s="1"/>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" s="1"/>
       <c r="B368" s="1"/>
       <c r="C368" s="1"/>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" s="1"/>
       <c r="B369" s="1"/>
       <c r="C369" s="1"/>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" s="1"/>
       <c r="B370" s="1"/>
       <c r="C370" s="1"/>
-    </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A371" s="1"/>
-      <c r="B371" s="1"/>
-      <c r="C371" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
